--- a/reports/_PERMA SHIPPING LINE PTE.LTD._ISPAHANI SUMMIT ALLIANCE TERMINALS LIMITED_container_report_2018-12-27_12_.xlsx
+++ b/reports/_PERMA SHIPPING LINE PTE.LTD._ISPAHANI SUMMIT ALLIANCE TERMINALS LIMITED_container_report_2018-12-27_12_.xlsx
@@ -1789,11 +1789,11 @@
         <v>13</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="S6" s="0"/>
@@ -1905,11 +1905,11 @@
         <v>11</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="S7" s="0"/>
